--- a/dataviz/df_book_visuel1_table_NONFILTRE.xlsx
+++ b/dataviz/df_book_visuel1_table_NONFILTRE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,65 +505,70 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>pages lues à la minute</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>pourcent_lu</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>start_date</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>end_date</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>intervalle_lecture_en_jour</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>nb_dates_lecture_distinctes</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>nb_pages_lues_par_jour_de_lecture</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>temps passé sur le livre en seconde</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>temps passé sur le livre en minute</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>temps passé sur le livre en heure</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>heure_lecture_par_jour_de_lecture</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>minutes_lecture_par_jour_de_lecture</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>temps_lecture_par_jour_de_lecture_formatee(hh:mm:ss)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>total_temps_de_lecture_(hh:mm:ss)</t>
         </is>
@@ -628,48 +633,51 @@
         <v>54</v>
       </c>
       <c r="N2" t="n">
+        <v>1.0980073200488</v>
+      </c>
+      <c r="O2" t="n">
         <v>14</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2024-10-27</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>6</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>18</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>2951</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>49.18</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.82</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.27</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>16.4</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>0:16</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0:49:11</t>
         </is>
@@ -734,48 +742,51 @@
         <v>249</v>
       </c>
       <c r="N3" t="n">
+        <v>1.744674887892377</v>
+      </c>
+      <c r="O3" t="n">
         <v>100</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2024-10-27</t>
         </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
       </c>
       <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
         <v>49.8</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>8563</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>142.72</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>2.38</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>0.48</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>28.5</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0:28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>2:22:43</t>
         </is>
@@ -840,48 +851,51 @@
         <v>422</v>
       </c>
       <c r="N4" t="n">
+        <v>1.137772984631976</v>
+      </c>
+      <c r="O4" t="n">
         <v>100</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2024-10-08</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>16</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>13</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>32.5</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>22254</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>370.9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>6.18</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>0.48</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>28.5</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0:28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>6:10:54</t>
         </is>
@@ -946,48 +960,51 @@
         <v>206</v>
       </c>
       <c r="N5" t="n">
+        <v>1.441870231679149</v>
+      </c>
+      <c r="O5" t="n">
         <v>100</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2024-10-03</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2024-10-08</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>6</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>41.2</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>8572</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>142.87</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>2.38</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>0.48</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>28.6</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0:28</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>2:22:52</t>
         </is>
@@ -1052,48 +1069,51 @@
         <v>487</v>
       </c>
       <c r="N6" t="n">
+        <v>1.382540809084457</v>
+      </c>
+      <c r="O6" t="n">
         <v>100</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2024-09-29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2024-10-03</t>
         </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
       </c>
       <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>21135</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>352.25</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>5.87</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>1.17</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>1:10</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>5:52:15</t>
         </is>
@@ -1158,48 +1178,51 @@
         <v>779</v>
       </c>
       <c r="N7" t="n">
+        <v>1.735933147632312</v>
+      </c>
+      <c r="O7" t="n">
         <v>100</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2024-09-23</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2024-09-29</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>7</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>6</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>129.8</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>26925</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>448.75</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>7.48</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>1.25</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>74.8</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>1:15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>7:28:45</t>
         </is>
@@ -1264,48 +1287,51 @@
         <v>135</v>
       </c>
       <c r="N8" t="n">
+        <v>1.399688958009331</v>
+      </c>
+      <c r="O8" t="n">
         <v>100</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2024-09-17</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>9</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>5</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>27</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>5787</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>96.45</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>1.61</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>0.32</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>19.3</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>0:19</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>1:36:27</t>
         </is>
@@ -1366,48 +1392,51 @@
         <v>467</v>
       </c>
       <c r="N9" t="n">
+        <v>1.313901471457108</v>
+      </c>
+      <c r="O9" t="n">
         <v>100</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>21</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>16</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>29.2</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>21326</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>355.43</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>5.92</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>0.37</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0:22</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>5:55:26</t>
         </is>
@@ -1472,48 +1501,51 @@
         <v>208</v>
       </c>
       <c r="N10" t="n">
+        <v>1.319629488643573</v>
+      </c>
+      <c r="O10" t="n">
         <v>92</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>7</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>5</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>41.6</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>9457</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>157.62</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>2.63</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>0.53</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>31.5</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>2:37:37</t>
         </is>
@@ -1578,48 +1610,51 @@
         <v>234</v>
       </c>
       <c r="N11" t="n">
+        <v>1.451432824711574</v>
+      </c>
+      <c r="O11" t="n">
         <v>100</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2024-08-11</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>4</v>
       </c>
       <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
         <v>58.5</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>9673</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>161.22</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>2.69</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>0.67</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>40.3</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>0:40</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>2:41:13</t>
         </is>
@@ -1684,48 +1719,51 @@
         <v>815</v>
       </c>
       <c r="N12" t="n">
+        <v>1.091352205468813</v>
+      </c>
+      <c r="O12" t="n">
         <v>100</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2024-08-11</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>9</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>8</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>101.9</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>44807</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>746.78</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>12.45</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>1.56</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>93.3</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>1:33</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>12:26:47</t>
         </is>
@@ -1786,48 +1824,51 @@
         <v>7</v>
       </c>
       <c r="N13" t="n">
+        <v>4.45859872611465</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2024-08-08</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>6</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>2</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>3.5</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>94</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>1.57</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>0.03</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>0.01</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0:01:34</t>
         </is>
@@ -1888,20 +1929,20 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="O14" t="n">
         <v>7</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2024-08-03</t>
         </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>2</v>
@@ -1910,26 +1951,29 @@
         <v>2</v>
       </c>
       <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
         <v>216</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>3.6</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>0.06</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>0.03</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0:01</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>0:03:36</t>
         </is>
@@ -1990,48 +2034,51 @@
         <v>458</v>
       </c>
       <c r="N15" t="n">
+        <v>1.700200460316282</v>
+      </c>
+      <c r="O15" t="n">
         <v>100</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2024-07-29</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>4</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>114.5</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>16163</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>269.38</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>4.49</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>1.12</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>67.3</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>1:07</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>4:29:23</t>
         </is>
@@ -2092,48 +2139,51 @@
         <v>768</v>
       </c>
       <c r="N16" t="n">
+        <v>1.756552765198298</v>
+      </c>
+      <c r="O16" t="n">
         <v>100</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2012-05-01</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2024-07-29</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>4473</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>11</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>69.8</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>26233</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>437.22</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>7.29</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>0.66</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>39.7</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0:39</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>7:17:13</t>
         </is>
@@ -2194,48 +2244,51 @@
         <v>387</v>
       </c>
       <c r="N17" t="n">
+        <v>1.372437761543372</v>
+      </c>
+      <c r="O17" t="n">
         <v>100</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2012-05-01</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2024-07-18</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>4462</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>11</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>35.2</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>16919</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>281.98</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>4.7</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>0.43</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>25.6</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>0:25</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>4:41:59</t>
         </is>
@@ -2300,20 +2353,20 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2322,26 +2375,29 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
         <v>108</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.03</v>
       </c>
       <c r="W18" t="n">
         <v>0.03</v>
       </c>
       <c r="X18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>0:01</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>0:01:48</t>
         </is>
@@ -2402,48 +2458,51 @@
         <v>325</v>
       </c>
       <c r="N19" t="n">
+        <v>1.708278580814717</v>
+      </c>
+      <c r="O19" t="n">
         <v>100</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>8</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>7</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>46.4</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>11415</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>190.25</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>3.17</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>0.45</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>27.2</v>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>0:27</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>3:10:15</t>
         </is>
@@ -2504,48 +2563,51 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
+        <v>3.252032520325203</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
       </c>
       <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
         <v>4</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>74</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>1.23</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.02</v>
       </c>
       <c r="W20" t="n">
         <v>0.02</v>
       </c>
       <c r="X20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.2</v>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>0:01</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>0:01:14</t>
         </is>
@@ -2606,48 +2668,51 @@
         <v>435</v>
       </c>
       <c r="N21" t="n">
+        <v>1.493562231759657</v>
+      </c>
+      <c r="O21" t="n">
         <v>100</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>9</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>6</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>72.5</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>17475</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>291.25</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>4.85</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>48.5</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>0:48</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>4:51:15</t>
         </is>
@@ -2708,48 +2773,51 @@
         <v>25</v>
       </c>
       <c r="N22" t="n">
+        <v>1.73370319001387</v>
+      </c>
+      <c r="O22" t="n">
         <v>5</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>1</v>
       </c>
       <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
         <v>25</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>865</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>14.42</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.24</v>
       </c>
       <c r="W22" t="n">
         <v>0.24</v>
       </c>
       <c r="X22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y22" t="n">
         <v>14.4</v>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>0:14</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>0:14:25</t>
         </is>
@@ -2810,48 +2878,51 @@
         <v>153</v>
       </c>
       <c r="N23" t="n">
+        <v>1.257189811010682</v>
+      </c>
+      <c r="O23" t="n">
         <v>100</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
       </c>
       <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="n">
         <v>51</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>7302</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>121.7</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>2.03</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>0.68</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>40.6</v>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>0:40</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>2:01:42</t>
         </is>
@@ -2914,48 +2985,51 @@
         <v>266</v>
       </c>
       <c r="N24" t="n">
+        <v>1.654949293846824</v>
+      </c>
+      <c r="O24" t="n">
         <v>100</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2024-06-16</t>
         </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>6</v>
       </c>
       <c r="R24" t="n">
         <v>6</v>
       </c>
       <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
         <v>44.3</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>9644</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>160.73</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>2.68</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>0.45</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>26.8</v>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>0:27</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>2:40:44</t>
         </is>
@@ -3020,48 +3094,51 @@
         <v>7</v>
       </c>
       <c r="N25" t="n">
+        <v>1.573033707865168</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>2</v>
       </c>
       <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="n">
         <v>3.5</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>267</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>4.45</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>0.04</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>0:02</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>0:04:27</t>
         </is>
@@ -3122,48 +3199,51 @@
         <v>82</v>
       </c>
       <c r="N26" t="n">
+        <v>1.528994965504382</v>
+      </c>
+      <c r="O26" t="n">
         <v>100</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>1</v>
       </c>
       <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
         <v>82</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>3218</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>53.63</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.89</v>
       </c>
       <c r="W26" t="n">
         <v>0.89</v>
       </c>
       <c r="X26" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y26" t="n">
         <v>53.6</v>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>0:53</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>0:53:38</t>
         </is>
@@ -3224,20 +3304,20 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O27" t="n">
         <v>100</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>1</v>
@@ -3246,26 +3326,29 @@
         <v>1</v>
       </c>
       <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
         <v>5</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0.08</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>0:00:05</t>
         </is>
@@ -3326,48 +3409,51 @@
         <v>46</v>
       </c>
       <c r="N28" t="n">
+        <v>1.093155893536122</v>
+      </c>
+      <c r="O28" t="n">
         <v>79</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="n">
         <v>11.5</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>2525</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>42.08</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>0.7</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>0.18</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>0:10</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>0:42:05</t>
         </is>
@@ -3428,48 +3514,51 @@
         <v>17</v>
       </c>
       <c r="N29" t="n">
+        <v>1.223021582733813</v>
+      </c>
+      <c r="O29" t="n">
         <v>2</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>93</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>3</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>5.7</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>834</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>13.9</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>0.23</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>0.08</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>4.6</v>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>0:04</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>0:13:54</t>
         </is>
@@ -3534,48 +3623,51 @@
         <v>47</v>
       </c>
       <c r="N30" t="n">
+        <v>1.085951940850277</v>
+      </c>
+      <c r="O30" t="n">
         <v>6</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>2024-06-02</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>6</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>4</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>11.8</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>2597</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>43.28</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>0.72</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>0.18</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>10.8</v>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>0:10</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>0:43:17</t>
         </is>
@@ -3636,48 +3728,51 @@
         <v>546</v>
       </c>
       <c r="N31" t="n">
+        <v>1.705557117421048</v>
+      </c>
+      <c r="O31" t="n">
         <v>100</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2024-06-02</t>
         </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>7</v>
       </c>
       <c r="R31" t="n">
         <v>7</v>
       </c>
       <c r="S31" t="n">
+        <v>7</v>
+      </c>
+      <c r="T31" t="n">
         <v>78</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>19208</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>320.13</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>5.34</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>0.76</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>45.7</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>0:45</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>5:20:08</t>
         </is>
@@ -3738,48 +3833,51 @@
         <v>447</v>
       </c>
       <c r="N32" t="n">
+        <v>1.679945880938064</v>
+      </c>
+      <c r="O32" t="n">
         <v>100</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
       </c>
       <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
         <v>149</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>15965</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>266.08</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>4.43</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>1.48</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>88.7</v>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>1:28</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>4:26:05</t>
         </is>
@@ -3840,48 +3938,51 @@
         <v>741</v>
       </c>
       <c r="N33" t="n">
+        <v>1.676660255685032</v>
+      </c>
+      <c r="O33" t="n">
         <v>100</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>10</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>9</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>82.3</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>26517</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>441.95</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>7.37</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>0.82</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>49.1</v>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>0:49</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>7:21:57</t>
         </is>
@@ -3946,48 +4047,51 @@
         <v>708</v>
       </c>
       <c r="N34" t="n">
+        <v>1.387636705734781</v>
+      </c>
+      <c r="O34" t="n">
         <v>100</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>13</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>12</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>59</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>30613</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>510.22</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>8.5</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>0.71</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>42.5</v>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>0:42</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>8:30:13</t>
         </is>
@@ -4052,48 +4156,51 @@
         <v>260</v>
       </c>
       <c r="N35" t="n">
+        <v>1.134133042529989</v>
+      </c>
+      <c r="O35" t="n">
         <v>100</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>6</v>
       </c>
       <c r="R35" t="n">
         <v>6</v>
       </c>
       <c r="S35" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" t="n">
         <v>43.3</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>13755</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>229.25</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>3.82</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>0.64</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>38.2</v>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>0:38</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>3:49:15</t>
         </is>
@@ -4160,20 +4267,20 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>1</v>
@@ -4182,26 +4289,29 @@
         <v>1</v>
       </c>
       <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
         <v>14</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>0.23</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>0:00:14</t>
         </is>
@@ -4262,48 +4372,51 @@
         <v>419</v>
       </c>
       <c r="N37" t="n">
+        <v>1.397971440010676</v>
+      </c>
+      <c r="O37" t="n">
         <v>100</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>7</v>
       </c>
       <c r="R37" t="n">
         <v>7</v>
       </c>
       <c r="S37" t="n">
+        <v>7</v>
+      </c>
+      <c r="T37" t="n">
         <v>59.9</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>17983</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>299.72</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>5</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>0.71</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>42.8</v>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>0:42</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>4:59:43</t>
         </is>
@@ -4364,48 +4477,51 @@
         <v>484</v>
       </c>
       <c r="N38" t="n">
+        <v>1.27890077949531</v>
+      </c>
+      <c r="O38" t="n">
         <v>85</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>15</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>13</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>37.2</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>22707</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>378.45</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>6.31</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>0.49</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>29.1</v>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>0:29</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>6:18:27</t>
         </is>
@@ -4466,48 +4582,51 @@
         <v>870</v>
       </c>
       <c r="N39" t="n">
+        <v>1.400244640442928</v>
+      </c>
+      <c r="O39" t="n">
         <v>100</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>21</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>20</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>43.5</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>37279</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>621.3200000000001</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>10.36</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>0.52</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>31.1</v>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>10:21:19</t>
         </is>
@@ -4568,48 +4687,51 @@
         <v>383</v>
       </c>
       <c r="N40" t="n">
+        <v>2.044083898169398</v>
+      </c>
+      <c r="O40" t="n">
         <v>100</v>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
       </c>
       <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="n">
         <v>191.5</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>11242</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>187.37</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>3.12</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>1.56</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>93.7</v>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>1:33</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>3:07:22</t>
         </is>
@@ -4670,48 +4792,51 @@
         <v>41</v>
       </c>
       <c r="N41" t="n">
+        <v>0.9586158522328735</v>
+      </c>
+      <c r="O41" t="n">
         <v>12</v>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>7</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>4</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>10.2</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>2566</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>42.77</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>0.71</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>0.18</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>10.7</v>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>0:10</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>0:42:46</t>
         </is>
@@ -4776,48 +4901,51 @@
         <v>21</v>
       </c>
       <c r="N42" t="n">
+        <v>0.7700770077007701</v>
+      </c>
+      <c r="O42" t="n">
         <v>3</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>3</v>
       </c>
       <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="n">
         <v>7</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>1636</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>27.27</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>0.45</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>0.15</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>0:09</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>0:27:16</t>
         </is>
@@ -4882,48 +5010,51 @@
         <v>13</v>
       </c>
       <c r="N43" t="n">
+        <v>1.27826941986234</v>
+      </c>
+      <c r="O43" t="n">
         <v>3</v>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
       </c>
       <c r="R43" t="n">
         <v>2</v>
       </c>
       <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
         <v>6.5</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>610</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>10.17</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>0.17</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>0.08</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>5.1</v>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>0:04</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>0:10:10</t>
         </is>
@@ -4984,48 +5115,51 @@
         <v>12</v>
       </c>
       <c r="N44" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O44" t="n">
         <v>3</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
       </c>
       <c r="R44" t="n">
         <v>2</v>
       </c>
       <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="n">
         <v>6</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>750</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>12.5</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>0.21</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>0.1</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>6.2</v>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>0:06</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>0:12:30</t>
         </is>
@@ -5090,48 +5224,51 @@
         <v>329</v>
       </c>
       <c r="N45" t="n">
+        <v>1.185585585585586</v>
+      </c>
+      <c r="O45" t="n">
         <v>100</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>8</v>
       </c>
       <c r="R45" t="n">
         <v>8</v>
       </c>
       <c r="S45" t="n">
+        <v>8</v>
+      </c>
+      <c r="T45" t="n">
         <v>41.1</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>16650</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>277.5</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>4.62</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>0.58</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>34.7</v>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>0:34</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>4:37:30</t>
         </is>
@@ -5192,48 +5329,51 @@
         <v>407</v>
       </c>
       <c r="N46" t="n">
+        <v>1.720930232558139</v>
+      </c>
+      <c r="O46" t="n">
         <v>86</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>4</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>3</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>135.7</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>14190</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>236.5</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>3.94</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>1.31</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>78.8</v>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>1:18</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>3:56:30</t>
         </is>
@@ -5294,48 +5434,51 @@
         <v>625</v>
       </c>
       <c r="N47" t="n">
+        <v>1.432730440364028</v>
+      </c>
+      <c r="O47" t="n">
         <v>100</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>8</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>125</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>26174</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>436.23</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>7.27</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>1.45</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>87.2</v>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>1:27</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>7:16:14</t>
         </is>
@@ -5396,48 +5539,51 @@
         <v>277</v>
       </c>
       <c r="N48" t="n">
+        <v>1.306480520705594</v>
+      </c>
+      <c r="O48" t="n">
         <v>62</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2024-02-25</t>
         </is>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>38</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>8</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>34.6</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>12721</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>212.02</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>3.53</v>
       </c>
-      <c r="W48" t="n">
+      <c r="X48" t="n">
         <v>0.44</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>26.5</v>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>0:26</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>3:32:01</t>
         </is>
@@ -5498,48 +5644,51 @@
         <v>1125</v>
       </c>
       <c r="N49" t="n">
+        <v>1.410393029524228</v>
+      </c>
+      <c r="O49" t="n">
         <v>84</v>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>19</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>17</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>66.2</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>47859</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>797.65</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>13.29</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>0.78</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>46.9</v>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>0:46</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>13:17:39</t>
         </is>
@@ -5600,48 +5749,51 @@
         <v>2</v>
       </c>
       <c r="N50" t="n">
+        <v>3.508771929824562</v>
+      </c>
+      <c r="O50" t="n">
         <v>0</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>1</v>
       </c>
       <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
         <v>2</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>34</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>0.57</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0.01</v>
       </c>
       <c r="W50" t="n">
         <v>0.01</v>
       </c>
       <c r="X50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y50" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>0:00:34</t>
         </is>
@@ -5702,48 +5854,51 @@
         <v>9</v>
       </c>
       <c r="N51" t="n">
+        <v>1.255230125523012</v>
+      </c>
+      <c r="O51" t="n">
         <v>22</v>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>1</v>
       </c>
       <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
         <v>9</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>430</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>7.17</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0.12</v>
       </c>
       <c r="W51" t="n">
         <v>0.12</v>
       </c>
       <c r="X51" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y51" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>0:07</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>0:07:10</t>
         </is>
@@ -5808,48 +5963,51 @@
         <v>533</v>
       </c>
       <c r="N52" t="n">
+        <v>1.487289672684655</v>
+      </c>
+      <c r="O52" t="n">
         <v>52</v>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2024-01-28</t>
         </is>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>10</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>8</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>21502</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>358.37</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>5.97</v>
       </c>
-      <c r="W52" t="n">
+      <c r="X52" t="n">
         <v>0.75</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>44.8</v>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>0:45</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>5:58:22</t>
         </is>
@@ -5914,48 +6072,51 @@
         <v>414</v>
       </c>
       <c r="N53" t="n">
+        <v>1.218471318833328</v>
+      </c>
+      <c r="O53" t="n">
         <v>91</v>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>11</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>8</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>51.8</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>20386</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>339.77</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>5.66</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>0.71</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>42.5</v>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>0:42</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>5:39:46</t>
         </is>
@@ -6016,48 +6177,51 @@
         <v>263</v>
       </c>
       <c r="N54" t="n">
+        <v>0.9840972871842844</v>
+      </c>
+      <c r="O54" t="n">
         <v>88</v>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>2024-01-14</t>
         </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>6</v>
       </c>
       <c r="R54" t="n">
         <v>6</v>
       </c>
       <c r="S54" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" t="n">
         <v>43.8</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>16035</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>267.25</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>4.45</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>0.74</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>44.5</v>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Z54" t="inlineStr">
         <is>
           <t>0:44</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>4:27:15</t>
         </is>
@@ -6118,20 +6282,20 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="O55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>1</v>
@@ -6140,26 +6304,29 @@
         <v>1</v>
       </c>
       <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
         <v>51</v>
       </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>0.85</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0.01</v>
       </c>
       <c r="W55" t="n">
         <v>0.01</v>
       </c>
       <c r="X55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y55" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>0:00:51</t>
         </is>
@@ -6220,48 +6387,51 @@
         <v>10</v>
       </c>
       <c r="N56" t="n">
+        <v>1.763668430335097</v>
+      </c>
+      <c r="O56" t="n">
         <v>2</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
       </c>
       <c r="R56" t="n">
         <v>1</v>
       </c>
       <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
         <v>10</v>
       </c>
-      <c r="T56" t="n">
+      <c r="U56" t="n">
         <v>340</v>
       </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
         <v>5.67</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0.09</v>
       </c>
       <c r="W56" t="n">
         <v>0.09</v>
       </c>
       <c r="X56" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.7</v>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>0:05</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>0:05:40</t>
         </is>
@@ -6326,48 +6496,51 @@
         <v>60</v>
       </c>
       <c r="N57" t="n">
+        <v>0.9460737937559129</v>
+      </c>
+      <c r="O57" t="n">
         <v>13</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
       </c>
       <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="n">
         <v>30</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>3805</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>63.42</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>1.06</v>
       </c>
-      <c r="W57" t="n">
+      <c r="X57" t="n">
         <v>0.53</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>31.7</v>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>1:03:25</t>
         </is>
@@ -6428,48 +6601,51 @@
         <v>418</v>
       </c>
       <c r="N58" t="n">
+        <v>1.391107561235357</v>
+      </c>
+      <c r="O58" t="n">
         <v>62</v>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>2023-12-31</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>10</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>8</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>52.2</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>18029</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>300.48</v>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>5.01</v>
       </c>
-      <c r="W58" t="n">
+      <c r="X58" t="n">
         <v>0.63</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>37.6</v>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Z58" t="inlineStr">
         <is>
           <t>0:37</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AA58" t="inlineStr">
         <is>
           <t>5:00:29</t>
         </is>
@@ -6530,48 +6706,51 @@
         <v>288</v>
       </c>
       <c r="N59" t="n">
+        <v>1.417671671178932</v>
+      </c>
+      <c r="O59" t="n">
         <v>64</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>43</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>9</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>32</v>
       </c>
-      <c r="T59" t="n">
+      <c r="U59" t="n">
         <v>12189</v>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>203.15</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>3.39</v>
       </c>
-      <c r="W59" t="n">
+      <c r="X59" t="n">
         <v>0.38</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Y59" t="n">
         <v>22.6</v>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>0:22</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AA59" t="inlineStr">
         <is>
           <t>3:23:09</t>
         </is>
@@ -6632,20 +6811,20 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
+        <v>7.692307692307692</v>
+      </c>
+      <c r="O60" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -6654,26 +6833,29 @@
         <v>1</v>
       </c>
       <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
         <v>8</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>0.13</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Z60" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>0:00:08</t>
         </is>
@@ -6734,20 +6916,20 @@
         <v>1</v>
       </c>
       <c r="N61" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="O61" t="n">
         <v>2</v>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
-      </c>
-      <c r="Q61" t="n">
-        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>1</v>
@@ -6756,26 +6938,29 @@
         <v>1</v>
       </c>
       <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
         <v>14</v>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>0.23</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>0:00:14</t>
         </is>
@@ -6840,48 +7025,51 @@
         <v>27</v>
       </c>
       <c r="N62" t="n">
+        <v>5.601659751037344</v>
+      </c>
+      <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
       </c>
       <c r="R62" t="n">
         <v>1</v>
       </c>
       <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
         <v>27</v>
       </c>
-      <c r="T62" t="n">
+      <c r="U62" t="n">
         <v>289</v>
       </c>
-      <c r="U62" t="n">
+      <c r="V62" t="n">
         <v>4.82</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.08</v>
       </c>
       <c r="W62" t="n">
         <v>0.08</v>
       </c>
       <c r="X62" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>0:04</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>0:04:49</t>
         </is>
@@ -6942,48 +7130,51 @@
         <v>8</v>
       </c>
       <c r="N63" t="n">
+        <v>1.236476043276661</v>
+      </c>
+      <c r="O63" t="n">
         <v>12</v>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
-      </c>
-      <c r="Q63" t="n">
-        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>1</v>
       </c>
       <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="n">
         <v>8</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>388</v>
       </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
         <v>6.47</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0.11</v>
       </c>
       <c r="W63" t="n">
         <v>0.11</v>
       </c>
       <c r="X63" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y63" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>0:06</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>0:06:28</t>
         </is>
@@ -7048,48 +7239,51 @@
         <v>330</v>
       </c>
       <c r="N64" t="n">
+        <v>1.501023425062543</v>
+      </c>
+      <c r="O64" t="n">
         <v>100</v>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
-      </c>
-      <c r="Q64" t="n">
-        <v>7</v>
       </c>
       <c r="R64" t="n">
         <v>7</v>
       </c>
       <c r="S64" t="n">
+        <v>7</v>
+      </c>
+      <c r="T64" t="n">
         <v>47.1</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>13191</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>219.85</v>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>3.66</v>
       </c>
-      <c r="W64" t="n">
+      <c r="X64" t="n">
         <v>0.52</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
         <v>31.4</v>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>3:39:51</t>
         </is>
